--- a/db/postcards-raisedfoil.xlsx
+++ b/db/postcards-raisedfoil.xlsx
@@ -49,7 +49,7 @@
     <t>Majestic</t>
   </si>
   <si>
-    <t>Akuafoil</t>
+    <t>Raised Foil</t>
   </si>
   <si>
     <t>4 x 6</t>
